--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1019574.611997025</v>
+        <v>-1022383.427703763</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.33815182889586</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.5336584557159</v>
       </c>
       <c r="I2" t="n">
-        <v>127.8799231645348</v>
+        <v>127.8799231645347</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757987</v>
+        <v>15.28980726757976</v>
       </c>
       <c r="S2" t="n">
         <v>160.1994850723023</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.7173697524019</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>14.5483143813449</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.1972169735137</v>
       </c>
       <c r="H3" t="n">
-        <v>84.25425943428966</v>
+        <v>101.164597667581</v>
       </c>
       <c r="I3" t="n">
-        <v>49.929718425445</v>
+        <v>49.92971842544496</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321223</v>
+        <v>28.98666974321216</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
       </c>
       <c r="T3" t="n">
-        <v>195.5443345091571</v>
+        <v>178.6339962758659</v>
       </c>
       <c r="U3" t="n">
         <v>225.8659675948105</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6474604330833</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0299597861359</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6828348553325</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.2686478538544</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.34189322211434</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>312.6801432727555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>166.6145482037079</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>92.50481883706718</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>86.10110056715465</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>259.0417299038128</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>318.671946330841</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.95040986162904</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>32.25090972307282</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>56.10180801516533</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.6152205166461</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>212.5602966632236</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.24750433886545</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>144.8592102470453</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>20.25102067617374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>129.0096827405959</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3190,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652582</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>961.8209808297684</v>
+        <v>875.3623084990365</v>
       </c>
       <c r="C2" t="n">
-        <v>592.8584638893566</v>
+        <v>875.3623084990365</v>
       </c>
       <c r="D2" t="n">
-        <v>592.8584638893566</v>
+        <v>517.0966098922861</v>
       </c>
       <c r="E2" t="n">
-        <v>592.8584638893566</v>
+        <v>517.0966098922861</v>
       </c>
       <c r="F2" t="n">
-        <v>181.872559099749</v>
+        <v>517.0966098922861</v>
       </c>
       <c r="G2" t="n">
-        <v>181.872559099749</v>
+        <v>502.6136282469367</v>
       </c>
       <c r="H2" t="n">
         <v>181.872559099749</v>
@@ -4328,25 +4328,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8886863935818</v>
+        <v>220.8886863935819</v>
       </c>
       <c r="K2" t="n">
-        <v>593.703354974469</v>
+        <v>593.7033549744692</v>
       </c>
       <c r="L2" t="n">
         <v>1108.489545419346</v>
       </c>
       <c r="M2" t="n">
-        <v>1252.876518284238</v>
+        <v>1697.894916442143</v>
       </c>
       <c r="N2" t="n">
-        <v>1514.668853556541</v>
+        <v>1849.232029858756</v>
       </c>
       <c r="O2" t="n">
-        <v>2021.229116543221</v>
+        <v>2355.792292845436</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.892198408933</v>
+        <v>2626.084039162238</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4358,22 +4358,22 @@
         <v>2457.784065526216</v>
       </c>
       <c r="T2" t="n">
-        <v>2457.784065526216</v>
+        <v>2241.907934463184</v>
       </c>
       <c r="U2" t="n">
-        <v>2457.784065526216</v>
+        <v>1988.196562094352</v>
       </c>
       <c r="V2" t="n">
-        <v>2126.721178182645</v>
+        <v>1988.196562094352</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.025911130782</v>
+        <v>1635.427906824238</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.560152869702</v>
+        <v>1261.962148563158</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.42082089389</v>
+        <v>1261.962148563158</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>954.9726894739438</v>
+        <v>972.0538392045411</v>
       </c>
       <c r="C3" t="n">
-        <v>780.5196601928168</v>
+        <v>797.6008099234141</v>
       </c>
       <c r="D3" t="n">
-        <v>631.5852505315655</v>
+        <v>648.6664002621628</v>
       </c>
       <c r="E3" t="n">
-        <v>472.34779552611</v>
+        <v>489.4289452567074</v>
       </c>
       <c r="F3" t="n">
-        <v>325.813237552995</v>
+        <v>342.8943872835923</v>
       </c>
       <c r="G3" t="n">
-        <v>188.2402911151024</v>
+        <v>205.3214408456997</v>
       </c>
       <c r="H3" t="n">
-        <v>103.1349785552139</v>
+        <v>103.1349785552138</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4410,22 +4410,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>99.48921400426255</v>
+        <v>99.48921400426269</v>
       </c>
       <c r="L3" t="n">
-        <v>575.8563329517292</v>
+        <v>570.4108563223956</v>
       </c>
       <c r="M3" t="n">
-        <v>1183.733513618298</v>
+        <v>1178.288036988965</v>
       </c>
       <c r="N3" t="n">
-        <v>1823.406407849565</v>
+        <v>1817.960931220232</v>
       </c>
       <c r="O3" t="n">
-        <v>2342.16645757645</v>
+        <v>2336.720980947117</v>
       </c>
       <c r="P3" t="n">
-        <v>2628.766961774352</v>
+        <v>2420.790446915861</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4437,22 +4437,22 @@
         <v>2453.856262246632</v>
       </c>
       <c r="T3" t="n">
-        <v>2256.336732439403</v>
+        <v>2273.41788217</v>
       </c>
       <c r="U3" t="n">
-        <v>2028.189290424443</v>
+        <v>2045.27044015504</v>
       </c>
       <c r="V3" t="n">
-        <v>1793.0371821927</v>
+        <v>1810.118331923297</v>
       </c>
       <c r="W3" t="n">
-        <v>1538.799825464499</v>
+        <v>1555.880975195096</v>
       </c>
       <c r="X3" t="n">
-        <v>1330.948325258966</v>
+        <v>1348.029474989563</v>
       </c>
       <c r="Y3" t="n">
-        <v>1123.188026494012</v>
+        <v>1140.269176224609</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.4793677850952</v>
+        <v>509.9705115576583</v>
       </c>
       <c r="C4" t="n">
-        <v>523.5431848571883</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D4" t="n">
-        <v>523.5431848571883</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E4" t="n">
-        <v>523.5431848571883</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>376.6532373592779</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>207.9361062621709</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4492,46 +4492,46 @@
         <v>141.1905938405665</v>
       </c>
       <c r="L4" t="n">
-        <v>309.9533456201949</v>
+        <v>309.9533456201951</v>
       </c>
       <c r="M4" t="n">
-        <v>498.2791281824879</v>
+        <v>498.2791281824881</v>
       </c>
       <c r="N4" t="n">
-        <v>687.5615609861236</v>
+        <v>687.5615609861241</v>
       </c>
       <c r="O4" t="n">
-        <v>846.3782284153082</v>
+        <v>846.3782284153087</v>
       </c>
       <c r="P4" t="n">
-        <v>958.752641599205</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="Q4" t="n">
-        <v>958.752641599205</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="R4" t="n">
-        <v>958.752641599205</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="S4" t="n">
-        <v>749.3903710397561</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="T4" t="n">
-        <v>749.3903710397561</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="U4" t="n">
-        <v>749.3903710397561</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="V4" t="n">
-        <v>749.3903710397561</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="W4" t="n">
-        <v>692.4793677850952</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="X4" t="n">
-        <v>692.4793677850952</v>
+        <v>730.7630907011884</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.4793677850952</v>
+        <v>509.9705115576583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.37799940018</v>
+        <v>586.2096423336557</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.415482459769</v>
+        <v>586.2096423336557</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.415482459769</v>
+        <v>227.9439437269052</v>
       </c>
       <c r="E5" t="n">
-        <v>785.6272298615243</v>
+        <v>227.9439437269052</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7887013031854</v>
+        <v>220.9984429777017</v>
       </c>
       <c r="G5" t="n">
         <v>52.70091953961285</v>
@@ -4565,25 +4565,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>1032.36013938198</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.059552207387</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V5" t="n">
-        <v>2303.983089637072</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.983089637072</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="X5" t="n">
-        <v>1930.517331375992</v>
+        <v>1362.948814373589</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.37799940018</v>
+        <v>972.8094823977774</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>89.49481119935454</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>157.1026308627116</v>
       </c>
       <c r="L6" t="n">
-        <v>743.329530925984</v>
+        <v>661.4641707288301</v>
       </c>
       <c r="M6" t="n">
-        <v>1094.033005337444</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N6" t="n">
-        <v>1746.206884640153</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387.0954458859852</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>387.0954458859852</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>387.0954458859852</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>959.1963900524252</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>751.7561053048305</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>751.7561053048305</v>
       </c>
       <c r="U7" t="n">
-        <v>763.4834245766374</v>
+        <v>751.7561053048305</v>
       </c>
       <c r="V7" t="n">
-        <v>763.4834245766374</v>
+        <v>751.7561053048305</v>
       </c>
       <c r="W7" t="n">
-        <v>474.0662545396768</v>
+        <v>462.3389352678699</v>
       </c>
       <c r="X7" t="n">
-        <v>387.0954458859852</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="Y7" t="n">
-        <v>387.0954458859852</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169.36310016472</v>
+        <v>1108.765490715616</v>
       </c>
       <c r="C8" t="n">
-        <v>1169.36310016472</v>
+        <v>739.8029737752042</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.36310016472</v>
+        <v>381.5372751684537</v>
       </c>
       <c r="E8" t="n">
-        <v>1169.36310016472</v>
+        <v>381.5372751684537</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305651</v>
+        <v>374.5917744192503</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>214.5647737753057</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>297.1279283498981</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>849.9411865960973</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1481.658997579409</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2108.966665639256</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4832,22 +4832,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.031077745182</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V8" t="n">
-        <v>1932.968190401611</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W8" t="n">
-        <v>1932.968190401611</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="X8" t="n">
-        <v>1559.502432140531</v>
+        <v>1498.904822691428</v>
       </c>
       <c r="Y8" t="n">
-        <v>1169.36310016472</v>
+        <v>1108.765490715616</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0181737180123</v>
+        <v>661.4641707288301</v>
       </c>
       <c r="M9" t="n">
-        <v>1278.563523185117</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N9" t="n">
-        <v>1477.220264837782</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439338</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>389.6283296392181</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="C10" t="n">
-        <v>220.6921467113112</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="D10" t="n">
-        <v>70.57550729897547</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="E10" t="n">
-        <v>70.57550729897547</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="F10" t="n">
-        <v>70.57550729897547</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="G10" t="n">
-        <v>70.57550729897547</v>
+        <v>84.66683039153006</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>84.66683039153006</v>
       </c>
       <c r="I10" t="n">
         <v>70.57550729897547</v>
@@ -4993,19 +4993,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V10" t="n">
-        <v>1020.058924511005</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W10" t="n">
-        <v>1020.058924511005</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X10" t="n">
-        <v>792.069373612988</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.2767944694579</v>
+        <v>253.2736753961467</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5467,19 +5467,19 @@
         <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="17">
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5607,7 +5607,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614396</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.930277414127</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>447.928008406947</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,22 +6725,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6838,10 +6838,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580114</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311324</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,13 +7731,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7840,16 +7840,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>111.5709311673645</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>196.1710965059176</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>18.53739690235821</v>
+        <v>18.53739690235813</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>365.3398638596875</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5768062920784</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>43.39875231298058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>172.9354929867225</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>142.0501052952621</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>288.1480622760309</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>347.103207002824</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1603092314733</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>317.5336584557159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>110.9711397994932</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1742586451435</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>269.14514429912</v>
       </c>
       <c r="W2" t="n">
-        <v>334.6926543360681</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>196.0358353086614</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.000252501566251</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856421</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>73.62417772602058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.5844758430719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>107.2784330767827</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>231.8866226476543</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>36.51445555167291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943216</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="E2" t="n">
         <v>201786.6499225016</v>
@@ -26326,22 +26326,22 @@
         <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660712</v>
@@ -26350,10 +26350,10 @@
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798374</v>
+        <v>734303.4749798379</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.2782802435</v>
+        <v>55134.27828024314</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
         <v>128077.5968157138</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118923.607285676</v>
+        <v>118923.6072856759</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707308</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980088</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="O4" t="n">
+        <v>14888.28375980088</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980085</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980087</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85298.15182533272</v>
+        <v>85298.15182533274</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769273.0931965245</v>
+        <v>-769633.1762122423</v>
       </c>
       <c r="C6" t="n">
-        <v>-126383.726073267</v>
+        <v>-126383.7260732667</v>
       </c>
       <c r="D6" t="n">
-        <v>-71249.44779302349</v>
+        <v>-71249.44779302343</v>
       </c>
       <c r="E6" t="n">
-        <v>-681921.6516746976</v>
+        <v>-681956.3896001331</v>
       </c>
       <c r="F6" t="n">
-        <v>93766.6956018871</v>
+        <v>93731.95767645145</v>
       </c>
       <c r="G6" t="n">
-        <v>93766.69560188688</v>
+        <v>93731.95767645139</v>
       </c>
       <c r="H6" t="n">
-        <v>93766.69560188703</v>
+        <v>93731.95767645136</v>
       </c>
       <c r="I6" t="n">
-        <v>93766.6956018874</v>
+        <v>93731.95767645139</v>
       </c>
       <c r="J6" t="n">
-        <v>-78594.2967983938</v>
+        <v>-78629.03472382943</v>
       </c>
       <c r="K6" t="n">
-        <v>93766.69560188708</v>
+        <v>93731.95767645132</v>
       </c>
       <c r="L6" t="n">
-        <v>67780.32485872324</v>
+        <v>67780.32485872282</v>
       </c>
       <c r="M6" t="n">
-        <v>-40869.55396335885</v>
+        <v>-40869.55396335888</v>
       </c>
       <c r="N6" t="n">
         <v>87208.0428523547</v>
       </c>
       <c r="O6" t="n">
-        <v>87208.04285235459</v>
+        <v>87208.04285235472</v>
       </c>
       <c r="P6" t="n">
-        <v>87208.04285235475</v>
+        <v>87208.04285235464</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608698</v>
+        <v>532.9290355608703</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26796,16 +26796,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608698</v>
+        <v>532.9290355608703</v>
       </c>
       <c r="C3" t="n">
-        <v>60.5470647771952</v>
+        <v>60.5470647771948</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>398.8221574025774</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>102.7462299529086</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>58.60711417101493</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16.91033823329137</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>16.91033823329116</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.599360665544509</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0299597861359</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
         <v>126.5499954250393</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344516</v>
+        <v>25.41509635344511</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882003048</v>
+        <v>5.689758882002977</v>
       </c>
       <c r="R4" t="n">
-        <v>134.0824567889062</v>
+        <v>134.0824567889061</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.2686478538544</v>
       </c>
       <c r="T4" t="n">
         <v>223.8394148919928</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>230.1811051144767</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>94.19590246895598</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>246.3023557422289</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27667,7 +27667,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27795,7 +27795,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>36.66836283072413</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>139.6085548218825</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>147.8343158378986</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>94.24495761509576</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>109.3161480177879</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>219.8867336007552</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29812,10 +29812,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661787</v>
+        <v>2.142428283661789</v>
       </c>
       <c r="H2" t="n">
-        <v>21.94114366005128</v>
+        <v>21.9411436600513</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587111</v>
+        <v>82.59596640587118</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404397</v>
+        <v>181.8359225404399</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878432</v>
+        <v>272.5249117878435</v>
       </c>
       <c r="L2" t="n">
-        <v>338.0912513739577</v>
+        <v>338.091251373958</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635279</v>
+        <v>376.1916603635283</v>
       </c>
       <c r="N2" t="n">
-        <v>382.278834724482</v>
+        <v>382.2788347244824</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788201</v>
+        <v>360.9750634788204</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0838652259197</v>
+        <v>308.08386522592</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.3581523172819</v>
+        <v>231.3581523172821</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5793106735698</v>
+        <v>134.5793106735699</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394301</v>
+        <v>48.82058451394305</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729475</v>
+        <v>9.378479811729484</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1713942626929429</v>
+        <v>0.171394262692943</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146300189696965</v>
+        <v>1.146300189696966</v>
       </c>
       <c r="H3" t="n">
-        <v>11.07084656891543</v>
+        <v>11.07084656891544</v>
       </c>
       <c r="I3" t="n">
-        <v>39.46691442597008</v>
+        <v>39.46691442597012</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3002297643085</v>
+        <v>108.3002297643086</v>
       </c>
       <c r="K3" t="n">
-        <v>185.1023424740052</v>
+        <v>185.1023424740053</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8929425041591</v>
+        <v>248.8929425041593</v>
       </c>
       <c r="M3" t="n">
-        <v>290.446324380674</v>
+        <v>290.4463243806742</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1335743370191</v>
+        <v>298.1335743370193</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968915</v>
+        <v>272.7339753968918</v>
       </c>
       <c r="P3" t="n">
-        <v>218.8930599080109</v>
+        <v>218.8930599080111</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.3242136883354</v>
+        <v>146.3242136883356</v>
       </c>
       <c r="R3" t="n">
-        <v>71.1711644094309</v>
+        <v>71.17116440943097</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038002</v>
+        <v>21.29202326038004</v>
       </c>
       <c r="T3" t="n">
-        <v>4.62039418566452</v>
+        <v>4.620394185664525</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07541448616427406</v>
+        <v>0.07541448616427412</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228798</v>
+        <v>0.9610195723228807</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107066</v>
+        <v>8.544337652107073</v>
       </c>
       <c r="I4" t="n">
-        <v>28.90047950221898</v>
+        <v>28.900479502219</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322761</v>
+        <v>67.94408376322767</v>
       </c>
       <c r="K4" t="n">
-        <v>111.6530012207855</v>
+        <v>111.6530012207856</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797126</v>
+        <v>142.8774007797127</v>
       </c>
       <c r="M4" t="n">
-        <v>150.6441862323947</v>
+        <v>150.6441862323948</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901004</v>
+        <v>147.0622041901006</v>
       </c>
       <c r="O4" t="n">
-        <v>135.8357482770558</v>
+        <v>135.835748277056</v>
       </c>
       <c r="P4" t="n">
-        <v>116.230949001669</v>
+        <v>116.2309490016691</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969134</v>
+        <v>80.47228436969141</v>
       </c>
       <c r="R4" t="n">
-        <v>43.2109345882633</v>
+        <v>43.21093458826333</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74795018311782</v>
+        <v>16.74795018311783</v>
       </c>
       <c r="T4" t="n">
-        <v>4.106174536288668</v>
+        <v>4.106174536288671</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05241924939942987</v>
+        <v>0.05241924939942991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>414.644818552487</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256867</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.8866331858272</v>
+        <v>169.8866331858273</v>
       </c>
       <c r="K2" t="n">
-        <v>376.5804733140274</v>
+        <v>376.5804733140276</v>
       </c>
       <c r="L2" t="n">
-        <v>519.9860509544209</v>
+        <v>519.9860509544212</v>
       </c>
       <c r="M2" t="n">
-        <v>145.8454271362552</v>
+        <v>595.3589606290881</v>
       </c>
       <c r="N2" t="n">
-        <v>264.4367022952556</v>
+        <v>152.8657711278914</v>
       </c>
       <c r="O2" t="n">
-        <v>511.6770333198788</v>
+        <v>511.677033319879</v>
       </c>
       <c r="P2" t="n">
-        <v>398.6495776421328</v>
+        <v>273.021965976568</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.3674531027371</v>
+        <v>9.052462442832621</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.26090349964616</v>
+        <v>47.2609034996463</v>
       </c>
       <c r="L3" t="n">
-        <v>481.1789080277441</v>
+        <v>475.6784265839726</v>
       </c>
       <c r="M3" t="n">
-        <v>614.0173542086557</v>
+        <v>614.0173542086559</v>
       </c>
       <c r="N3" t="n">
-        <v>646.1342365972394</v>
+        <v>646.1342365972396</v>
       </c>
       <c r="O3" t="n">
-        <v>524.0000502291766</v>
+        <v>524.0000502291768</v>
       </c>
       <c r="P3" t="n">
-        <v>289.4954587857591</v>
+        <v>84.91865249368081</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.342439602313931</v>
+        <v>216.4197273381631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490262</v>
+        <v>89.38350939490272</v>
       </c>
       <c r="L4" t="n">
-        <v>170.4674260400287</v>
+        <v>170.4674260400288</v>
       </c>
       <c r="M4" t="n">
-        <v>190.2280631942353</v>
+        <v>190.2280631942354</v>
       </c>
       <c r="N4" t="n">
-        <v>191.194376569329</v>
+        <v>191.1943765693292</v>
       </c>
       <c r="O4" t="n">
-        <v>160.4208761910955</v>
+        <v>160.4208761910956</v>
       </c>
       <c r="P4" t="n">
-        <v>113.5095082665625</v>
+        <v>113.5095082665626</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>37.16554713105221</v>
       </c>
       <c r="K6" t="n">
         <v>68.29072693268387</v>
@@ -35021,7 +35021,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>354.2459337489496</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
@@ -35033,7 +35033,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>163.498842662316</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35252,25 +35252,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>426.763817847439</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>508.2267551530873</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304687</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396408</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113564</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
